--- a/Cosmos/Build Log.xlsx
+++ b/Cosmos/Build Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zEROSeven\Documents\GitHub\Cosmos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zEROSeven\Documents\GitHub\Cosmos\Cosmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531ED32F-07A4-4B65-9B3F-1E16C84C4638}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D19015-7BEF-4156-B3E6-F9E3F8053D33}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{AEB77F1D-B45E-4B2D-856B-A525C45932F3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Version</t>
   </si>
@@ -50,6 +50,12 @@
 2) Event - Can now insert Event (Update and Delete not yet ready)
 3) Event Registration - Can now register employee to a specific event name
 </t>
+  </si>
+  <si>
+    <t>1.0.0.1</t>
+  </si>
+  <si>
+    <t>Employee maintenance - bulk insertion of employees (CSV to JSON format)</t>
   </si>
 </sst>
 </file>
@@ -407,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E80BCA6-2E86-49C6-9122-C8FB79792D3D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,6 +441,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
